--- a/beadandok/Measurements/graphs.xlsx
+++ b/beadandok/Measurements/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\parralel-L27NCJ\beadandok\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB5BEC-32C6-4301-89DA-ED32B3448038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52675DA4-BBE2-4BAD-B4CC-3D3942991EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="graphs" sheetId="1" r:id="rId1"/>
@@ -693,6 +693,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$C$2:$C$10</c:f>
@@ -759,6 +795,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$D$2:$D$10</c:f>
@@ -825,6 +897,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$E$2:$E$10</c:f>
@@ -1178,6 +1286,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$20:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$C$20:$C$28</c:f>
@@ -1244,6 +1388,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$20:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$D$20:$D$28</c:f>
@@ -1310,6 +1490,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$20:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$E$20:$E$28</c:f>
@@ -1663,6 +1879,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$56:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$C$56:$C$64</c:f>
@@ -1729,6 +1981,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$56:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$D$56:$D$64</c:f>
@@ -1795,6 +2083,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$56:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$E$56:$E$64</c:f>
@@ -2148,6 +2472,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$38:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$C$38:$C$46</c:f>
@@ -2214,6 +2574,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$38:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$D$38:$D$46</c:f>
@@ -2280,6 +2676,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>graphs!$B$38:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>graphs!$E$38:$E$46</c:f>
@@ -5144,8 +5576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
